--- a/exemples_excel_access/output/modele_saisie_erp.xlsx
+++ b/exemples_excel_access/output/modele_saisie_erp.xlsx
@@ -469,7 +469,7 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2026-02-17 18:13</t>
+          <t>2026-02-18 09:29</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -490,7 +490,7 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-02-17 19:13</t>
+          <t>2026-02-18 10:29</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -511,7 +511,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2026-02-17 20:13</t>
+          <t>2026-02-18 11:29</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -532,7 +532,7 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2026-02-17 21:13</t>
+          <t>2026-02-18 12:29</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -553,7 +553,7 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2026-02-17 22:13</t>
+          <t>2026-02-18 13:29</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -574,7 +574,7 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2026-02-17 23:13</t>
+          <t>2026-02-18 14:29</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -595,7 +595,7 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2026-02-18 00:13</t>
+          <t>2026-02-18 15:29</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -616,7 +616,7 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2026-02-18 01:13</t>
+          <t>2026-02-18 16:29</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -637,7 +637,7 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2026-02-18 02:13</t>
+          <t>2026-02-18 17:29</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -658,7 +658,7 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2026-02-18 03:13</t>
+          <t>2026-02-18 18:29</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -679,7 +679,7 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2026-02-18 04:13</t>
+          <t>2026-02-18 19:29</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -700,7 +700,7 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2026-02-18 05:13</t>
+          <t>2026-02-18 20:29</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -721,7 +721,7 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2026-02-18 06:13</t>
+          <t>2026-02-18 21:29</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -742,7 +742,7 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2026-02-18 07:13</t>
+          <t>2026-02-18 22:29</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -763,7 +763,7 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2026-02-18 08:13</t>
+          <t>2026-02-18 23:29</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -784,7 +784,7 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2026-02-18 09:13</t>
+          <t>2026-02-19 00:29</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -805,7 +805,7 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2026-02-18 10:13</t>
+          <t>2026-02-19 01:29</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -826,7 +826,7 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2026-02-18 11:13</t>
+          <t>2026-02-19 02:29</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -847,7 +847,7 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2026-02-18 12:13</t>
+          <t>2026-02-19 03:29</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -868,7 +868,7 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2026-02-18 13:13</t>
+          <t>2026-02-19 04:29</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -889,7 +889,7 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2026-02-18 14:13</t>
+          <t>2026-02-19 05:29</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -910,7 +910,7 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2026-02-18 15:13</t>
+          <t>2026-02-19 06:29</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -931,7 +931,7 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2026-02-18 16:13</t>
+          <t>2026-02-19 07:29</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -952,7 +952,7 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2026-02-18 17:13</t>
+          <t>2026-02-19 08:29</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -973,7 +973,7 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2026-02-18 18:13</t>
+          <t>2026-02-19 09:29</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -994,7 +994,7 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2026-02-18 19:13</t>
+          <t>2026-02-19 10:29</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1015,7 +1015,7 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2026-02-18 20:13</t>
+          <t>2026-02-19 11:29</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1036,7 +1036,7 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2026-02-18 21:13</t>
+          <t>2026-02-19 12:29</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1057,7 +1057,7 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2026-02-18 22:13</t>
+          <t>2026-02-19 13:29</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1078,7 +1078,7 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2026-02-18 23:13</t>
+          <t>2026-02-19 14:29</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1099,7 +1099,7 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2026-02-19 00:13</t>
+          <t>2026-02-19 15:29</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1120,7 +1120,7 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2026-02-19 01:13</t>
+          <t>2026-02-19 16:29</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1141,7 +1141,7 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2026-02-19 02:13</t>
+          <t>2026-02-19 17:29</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1162,7 +1162,7 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2026-02-19 03:13</t>
+          <t>2026-02-19 18:29</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1183,7 +1183,7 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2026-02-19 04:13</t>
+          <t>2026-02-19 19:29</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1204,7 +1204,7 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2026-02-19 05:13</t>
+          <t>2026-02-19 20:29</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1225,7 +1225,7 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2026-02-19 06:13</t>
+          <t>2026-02-19 21:29</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1246,7 +1246,7 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2026-02-19 07:13</t>
+          <t>2026-02-19 22:29</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1267,7 +1267,7 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2026-02-19 08:13</t>
+          <t>2026-02-19 23:29</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1288,7 +1288,7 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2026-02-19 09:13</t>
+          <t>2026-02-20 00:29</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1309,7 +1309,7 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2026-02-19 10:13</t>
+          <t>2026-02-20 01:29</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1330,7 +1330,7 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2026-02-19 11:13</t>
+          <t>2026-02-20 02:29</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1351,7 +1351,7 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2026-02-19 12:13</t>
+          <t>2026-02-20 03:29</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1372,7 +1372,7 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2026-02-19 13:13</t>
+          <t>2026-02-20 04:29</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1393,7 +1393,7 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2026-02-19 14:13</t>
+          <t>2026-02-20 05:29</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1414,7 +1414,7 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2026-02-19 15:13</t>
+          <t>2026-02-20 06:29</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1435,7 +1435,7 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2026-02-19 16:13</t>
+          <t>2026-02-20 07:29</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1456,7 +1456,7 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2026-02-19 17:13</t>
+          <t>2026-02-20 08:29</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1477,7 +1477,7 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2026-02-19 18:13</t>
+          <t>2026-02-20 09:29</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1498,7 +1498,7 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2026-02-19 19:13</t>
+          <t>2026-02-20 10:29</t>
         </is>
       </c>
       <c r="D51" t="n">
